--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Projects\RUBIO-BILLS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRIAN\OneDrive\Desktop\rubio-bills\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745AE24-685D-4732-8966-61734F302B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0E8118-4BD7-40D3-978D-F4C0542C0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AF31E137-FD34-40C7-B40A-1D6130560B8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-04-09_1426" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-04-11_1922" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -40,397 +40,394 @@
     <t xml:space="preserve">Status                                                         </t>
   </si>
   <si>
+    <t>AB-53</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>20252026</t>
+  </si>
+  <si>
+    <t>Personal income taxes: exclusion: Military Services Retirement and Surviving Spouse Benefit Payment Act.</t>
+  </si>
+  <si>
+    <t>Amended Assembly</t>
+  </si>
+  <si>
+    <t>Assembly - Revenue and Taxation</t>
+  </si>
+  <si>
+    <t>AB-260</t>
+  </si>
+  <si>
+    <t>Aguiar-Curry</t>
+  </si>
+  <si>
+    <t>Sexual and reproductive health care.</t>
+  </si>
+  <si>
+    <t>Assembly - Business and Professions</t>
+  </si>
+  <si>
+    <t>AB-379</t>
+  </si>
+  <si>
+    <t>Krell</t>
+  </si>
+  <si>
+    <t>Crimes: prostitution.</t>
+  </si>
+  <si>
+    <t>Assembly - Public Safety</t>
+  </si>
+  <si>
+    <t>AB-380</t>
+  </si>
+  <si>
+    <t>Mark González</t>
+  </si>
+  <si>
+    <t>Price gouging.</t>
+  </si>
+  <si>
+    <t>Assembly - Appropriations</t>
+  </si>
+  <si>
+    <t>AB-1138</t>
+  </si>
+  <si>
+    <t>Zbur</t>
+  </si>
+  <si>
+    <t>Income and corporate taxes: tax credits: motion pictures.</t>
+  </si>
+  <si>
+    <t>Assembly - Arts, Entertainment, Sports, and Tourism</t>
+  </si>
+  <si>
+    <t>AB-1468</t>
+  </si>
+  <si>
+    <t>Ethnic studies: content standards, curriculum frameworks, instructional materials, and compliance monitoring.</t>
+  </si>
+  <si>
+    <t>Introduced</t>
+  </si>
+  <si>
+    <t>Assembly - Education</t>
+  </si>
+  <si>
+    <t>SB-15</t>
+  </si>
+  <si>
+    <t>Blakespear</t>
+  </si>
+  <si>
+    <t>Firearms.</t>
+  </si>
+  <si>
     <t>Amended Senate</t>
   </si>
   <si>
-    <t>Introduced</t>
-  </si>
-  <si>
-    <t>Aguiar-Curry</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>AB-53</t>
-  </si>
-  <si>
-    <t>20252026</t>
-  </si>
-  <si>
-    <t>Personal income taxes: exclusion: Military Services Retirement and Surviving Spouse Benefit Payment Act.</t>
-  </si>
-  <si>
-    <t>Amended Assembly</t>
-  </si>
-  <si>
-    <t>Assembly - Revenue and Taxation</t>
-  </si>
-  <si>
-    <t>AB-260</t>
-  </si>
-  <si>
-    <t>Sexual and reproductive health care.</t>
-  </si>
-  <si>
-    <t>Assembly - Business and Professions</t>
-  </si>
-  <si>
-    <t>AB-379</t>
-  </si>
-  <si>
-    <t>Krell</t>
-  </si>
-  <si>
-    <t>Crimes: prostitution.</t>
-  </si>
-  <si>
-    <t>Assembly - Public Safety</t>
-  </si>
-  <si>
-    <t>AB-380</t>
-  </si>
-  <si>
-    <t>Mark González</t>
-  </si>
-  <si>
-    <t>Price gouging.</t>
-  </si>
-  <si>
-    <t>Assembly - Appropriations</t>
+    <t>Senate - Appropriations</t>
+  </si>
+  <si>
+    <t>SB-18</t>
+  </si>
+  <si>
+    <t>Rubio</t>
+  </si>
+  <si>
+    <t>Food Desert Elimination Grant Program.</t>
+  </si>
+  <si>
+    <t>Senate - Agriculture</t>
+  </si>
+  <si>
+    <t>SB-19</t>
+  </si>
+  <si>
+    <t>Threats: schools and places of worship.</t>
+  </si>
+  <si>
+    <t>SB-40</t>
+  </si>
+  <si>
+    <t>Wiener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health care coverage: insulin. </t>
+  </si>
+  <si>
+    <t>SB-48</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Immigration enforcement: schoolsites: prohibitions on access and sharing information.</t>
+  </si>
+  <si>
+    <t>Senate - Judiciary</t>
+  </si>
+  <si>
+    <t>SB-72</t>
+  </si>
+  <si>
+    <t>Caballero</t>
+  </si>
+  <si>
+    <t>The California Water Plan: long-term supply targets.</t>
+  </si>
+  <si>
+    <t>SB-84</t>
+  </si>
+  <si>
+    <t>Niello</t>
+  </si>
+  <si>
+    <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
+  </si>
+  <si>
+    <t>SB-99</t>
+  </si>
+  <si>
+    <t>Family childcare homes: United States Armed Forces.</t>
+  </si>
+  <si>
+    <t>Senate - Human Services</t>
+  </si>
+  <si>
+    <t>SB-248</t>
+  </si>
+  <si>
+    <t>Firearms: information to new owners.</t>
+  </si>
+  <si>
+    <t>SB-258</t>
+  </si>
+  <si>
+    <t>Wahab</t>
+  </si>
+  <si>
+    <t>Crimes: rape.</t>
+  </si>
+  <si>
+    <t>Senate - Public Safety</t>
+  </si>
+  <si>
+    <t>SB-267</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
+  </si>
+  <si>
+    <t>Senate - Revenue and Taxation</t>
+  </si>
+  <si>
+    <t>SB-341</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
+  </si>
+  <si>
+    <t>SB-360</t>
+  </si>
+  <si>
+    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
+  </si>
+  <si>
+    <t>SB-373</t>
+  </si>
+  <si>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>Special education: nonpublic, nonsectarian schools or agencies.</t>
+  </si>
+  <si>
+    <t>SB-387</t>
+  </si>
+  <si>
+    <t>Physicians and surgeons: special faculty permits: comprehensive cancer centers.</t>
+  </si>
+  <si>
+    <t>SB-388</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>California Latino Commission.</t>
+  </si>
+  <si>
+    <t>SB-425</t>
+  </si>
+  <si>
+    <t>Bonds: public entities as beneficiaries.</t>
+  </si>
+  <si>
+    <t>SB-443</t>
+  </si>
+  <si>
+    <t>Retirement: joint powers authorities.</t>
+  </si>
+  <si>
+    <t>Senate - Third Reading</t>
+  </si>
+  <si>
+    <t>SB-491</t>
+  </si>
+  <si>
+    <t>Laird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
+  </si>
+  <si>
+    <t>SB-531</t>
+  </si>
+  <si>
+    <t>Course of study: mental health education.</t>
+  </si>
+  <si>
+    <t>Senate - Education</t>
+  </si>
+  <si>
+    <t>SB-547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
+  </si>
+  <si>
+    <t>Senate - Insurance</t>
+  </si>
+  <si>
+    <t>SB-581</t>
+  </si>
+  <si>
+    <t>McGuire</t>
+  </si>
+  <si>
+    <t>Department of Forestry and Fire Protection: employment: firefighters.</t>
+  </si>
+  <si>
+    <t>Senate - Labor, Public Employment and Retirement</t>
+  </si>
+  <si>
+    <t>SB-583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurer financial statements. </t>
+  </si>
+  <si>
+    <t>SB-616</t>
+  </si>
+  <si>
+    <t>Community Hardening Commission: wildfire mitigation program.</t>
+  </si>
+  <si>
+    <t>SB-630</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>SB-641</t>
+  </si>
+  <si>
+    <t>Ashby</t>
+  </si>
+  <si>
+    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
+  </si>
+  <si>
+    <t>SB-672</t>
+  </si>
+  <si>
+    <t>The Youth Rehabilitation and Opportunity Act.</t>
+  </si>
+  <si>
+    <t>SB-680</t>
+  </si>
+  <si>
+    <t>Sex offender registration: unlawful sexual intercourse with a minor.</t>
+  </si>
+  <si>
+    <t>SB-702</t>
   </si>
   <si>
     <t>Limón</t>
   </si>
   <si>
-    <t>AB-1138</t>
-  </si>
-  <si>
-    <t>Zbur</t>
-  </si>
-  <si>
-    <t>Income and corporate taxes: tax credits: motion pictures.</t>
-  </si>
-  <si>
-    <t>Assembly - Arts, Entertainment, Sports, and Tourism</t>
-  </si>
-  <si>
-    <t>AB-1468</t>
-  </si>
-  <si>
-    <t>Ethnic studies: content standards, curriculum frameworks, instructional materials, and compliance monitoring.</t>
-  </si>
-  <si>
-    <t>Assembly - Education</t>
+    <t>Legislative and gubernatorial appointments: report.</t>
+  </si>
+  <si>
+    <t>SB-738</t>
+  </si>
+  <si>
+    <t>The Reclaim Act.</t>
+  </si>
+  <si>
+    <t>SB-740</t>
+  </si>
+  <si>
+    <t>Municipal wastewater agency: new agreement or amendment.</t>
+  </si>
+  <si>
+    <t>Senate - Environmental Quality</t>
+  </si>
+  <si>
+    <t>SB-783</t>
+  </si>
+  <si>
+    <t>Outdoor advertising displays: redevelopment agency project areas.</t>
+  </si>
+  <si>
+    <t>SB-798</t>
+  </si>
+  <si>
+    <t>Veterans.</t>
+  </si>
+  <si>
+    <t>Senate - Military and Veterans Affairs</t>
+  </si>
+  <si>
+    <t>SB-814</t>
+  </si>
+  <si>
+    <t>Homelessness.</t>
+  </si>
+  <si>
+    <t>Senate - Housing</t>
+  </si>
+  <si>
+    <t>SB-836</t>
+  </si>
+  <si>
+    <t>Electricity: transmission planning and permitting.</t>
+  </si>
+  <si>
+    <t>Senate - Energy, Utilities and Communications</t>
+  </si>
+  <si>
+    <t>SB-841</t>
+  </si>
+  <si>
+    <t>Immigration enforcement.</t>
+  </si>
+  <si>
+    <t>SB-844</t>
   </si>
   <si>
     <t>Horse racing: out-of-state thoroughbred races.</t>
-  </si>
-  <si>
-    <t>Caballero</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Rubio</t>
-  </si>
-  <si>
-    <t>Grove</t>
-  </si>
-  <si>
-    <t>SB-15</t>
-  </si>
-  <si>
-    <t>Blakespear</t>
-  </si>
-  <si>
-    <t>Firearms.</t>
-  </si>
-  <si>
-    <t>Senate - Appropriations</t>
-  </si>
-  <si>
-    <t>SB-18</t>
-  </si>
-  <si>
-    <t>McGuire</t>
-  </si>
-  <si>
-    <t>Food Desert Elimination Grant Program.</t>
-  </si>
-  <si>
-    <t>Senate - Agriculture</t>
-  </si>
-  <si>
-    <t>SB-19</t>
-  </si>
-  <si>
-    <t>Threats: schools and places of worship.</t>
-  </si>
-  <si>
-    <t>SB-40</t>
-  </si>
-  <si>
-    <t>Wiener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health care coverage: insulin. </t>
-  </si>
-  <si>
-    <t>SB-48</t>
-  </si>
-  <si>
-    <t>Immigration enforcement: schoolsites: prohibitions on access and sharing information.</t>
-  </si>
-  <si>
-    <t>Senate - Judiciary</t>
-  </si>
-  <si>
-    <t>SB-72</t>
-  </si>
-  <si>
-    <t>The California Water Plan: long-term supply targets.</t>
-  </si>
-  <si>
-    <t>Senate - Natural Resources and Water</t>
-  </si>
-  <si>
-    <t>SB-84</t>
-  </si>
-  <si>
-    <t>Niello</t>
-  </si>
-  <si>
-    <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
-  </si>
-  <si>
-    <t>SB-99</t>
-  </si>
-  <si>
-    <t>Family childcare homes: United States Armed Forces.</t>
-  </si>
-  <si>
-    <t>Senate - Human Services</t>
-  </si>
-  <si>
-    <t>SB-248</t>
-  </si>
-  <si>
-    <t>Firearms: information to new owners.</t>
-  </si>
-  <si>
-    <t>SB-258</t>
-  </si>
-  <si>
-    <t>Wahab</t>
-  </si>
-  <si>
-    <t>Crimes: rape.</t>
-  </si>
-  <si>
-    <t>Senate - Public Safety</t>
-  </si>
-  <si>
-    <t>SB-267</t>
-  </si>
-  <si>
-    <t>Choi</t>
-  </si>
-  <si>
-    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
-  </si>
-  <si>
-    <t>Senate - Revenue and Taxation</t>
-  </si>
-  <si>
-    <t>Padilla</t>
-  </si>
-  <si>
-    <t>Ashby</t>
-  </si>
-  <si>
-    <t>SB-341</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>SB-360</t>
-  </si>
-  <si>
-    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
-  </si>
-  <si>
-    <t>SB-373</t>
-  </si>
-  <si>
-    <t>Special education: nonpublic, nonsectarian schools or agencies.</t>
-  </si>
-  <si>
-    <t>SB-387</t>
-  </si>
-  <si>
-    <t>Physicians and surgeons: special faculty permits: comprehensive cancer centers.</t>
-  </si>
-  <si>
-    <t>SB-388</t>
-  </si>
-  <si>
-    <t>California Latino Commission.</t>
-  </si>
-  <si>
-    <t>Laird</t>
-  </si>
-  <si>
-    <t>SB-425</t>
-  </si>
-  <si>
-    <t>Bonds: public entities as beneficiaries.</t>
-  </si>
-  <si>
-    <t>SB-443</t>
-  </si>
-  <si>
-    <t>Retirement: joint powers authorities.</t>
-  </si>
-  <si>
-    <t>Senate - Third Reading</t>
-  </si>
-  <si>
-    <t>SB-491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
-  </si>
-  <si>
-    <t>SB-531</t>
-  </si>
-  <si>
-    <t>Course of study: mental health education.</t>
-  </si>
-  <si>
-    <t>Senate - Education</t>
-  </si>
-  <si>
-    <t>SB-547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
-  </si>
-  <si>
-    <t>Senate - Insurance</t>
-  </si>
-  <si>
-    <t>SB-581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Forestry and Fire Protection: seasonal firefighters. </t>
-  </si>
-  <si>
-    <t>Senate - Labor, Public Employment and Retirement</t>
-  </si>
-  <si>
-    <t>SB-583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurer financial statements. </t>
-  </si>
-  <si>
-    <t>SB-616</t>
-  </si>
-  <si>
-    <t>Community Hardening Commission: wildfire mitigation program.</t>
-  </si>
-  <si>
-    <t>SB-630</t>
-  </si>
-  <si>
-    <t>SB-641</t>
-  </si>
-  <si>
-    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
-  </si>
-  <si>
-    <t>SB-672</t>
-  </si>
-  <si>
-    <t>The Youth Rehabilitation and Opportunity Act.</t>
-  </si>
-  <si>
-    <t>SB-680</t>
-  </si>
-  <si>
-    <t>Sex offender registration: unlawful sexual intercourse with a minor.</t>
-  </si>
-  <si>
-    <t>SB-702</t>
-  </si>
-  <si>
-    <t>Legislative and gubernatorial appointments: report.</t>
-  </si>
-  <si>
-    <t>SB-738</t>
-  </si>
-  <si>
-    <t>The Reclaim Act.</t>
-  </si>
-  <si>
-    <t>SB-740</t>
-  </si>
-  <si>
-    <t>Municipal wastewater agency: new agreement or amendment.</t>
-  </si>
-  <si>
-    <t>Senate - Environmental Quality</t>
-  </si>
-  <si>
-    <t>SB-783</t>
-  </si>
-  <si>
-    <t>Outdoor advertising displays: redevelopment agency project areas.</t>
-  </si>
-  <si>
-    <t>SB-798</t>
-  </si>
-  <si>
-    <t>Veterans.</t>
-  </si>
-  <si>
-    <t>Senate - Military and Veterans Affairs</t>
-  </si>
-  <si>
-    <t>SB-814</t>
-  </si>
-  <si>
-    <t>Homelessness.</t>
-  </si>
-  <si>
-    <t>Senate - Housing</t>
-  </si>
-  <si>
-    <t>SB-836</t>
-  </si>
-  <si>
-    <t>Electricity: transmission planning and permitting.</t>
-  </si>
-  <si>
-    <t>Senate - Energy, Utilities and Communications</t>
-  </si>
-  <si>
-    <t>SB-841</t>
-  </si>
-  <si>
-    <t>Immigration enforcement.</t>
-  </si>
-  <si>
-    <t>SB-844</t>
   </si>
 </sst>
 </file>
@@ -485,8 +482,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,39 +512,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -580,9 +577,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -615,6 +629,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,13 +707,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -691,6 +715,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -755,32 +786,50 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53E454F-31A1-4916-B48A-DCEE3144B5BE}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="150.1796875" customWidth="1"/>
+    <col min="4" max="4" width="94.6328125" customWidth="1"/>
     <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="55.7265625" customWidth="1"/>
+    <col min="6" max="6" width="44.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -805,868 +854,865 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
-    <sortCondition ref="C2:C44"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRIAN\OneDrive\Desktop\rubio-bills\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheatlbr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0E8118-4BD7-40D3-978D-F4C0542C0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AF31E137-FD34-40C7-B40A-1D6130560B8C}"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-04-11_1922" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-04-23_1527" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -94,6 +93,15 @@
     <t>Assembly - Appropriations</t>
   </si>
   <si>
+    <t>AB-573</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Cigarette and tobacco products: licensing and enforcement.</t>
+  </si>
+  <si>
     <t>AB-1138</t>
   </si>
   <si>
@@ -103,9 +111,6 @@
     <t>Income and corporate taxes: tax credits: motion pictures.</t>
   </si>
   <si>
-    <t>Assembly - Arts, Entertainment, Sports, and Tourism</t>
-  </si>
-  <si>
     <t>AB-1468</t>
   </si>
   <si>
@@ -151,6 +156,18 @@
     <t>Threats: schools and places of worship.</t>
   </si>
   <si>
+    <t>SB-31</t>
+  </si>
+  <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Water quality: recycled water.</t>
+  </si>
+  <si>
+    <t>Senate - Environmental Quality</t>
+  </si>
+  <si>
     <t>SB-40</t>
   </si>
   <si>
@@ -196,7 +213,19 @@
     <t>Family childcare homes: United States Armed Forces.</t>
   </si>
   <si>
-    <t>Senate - Human Services</t>
+    <t>Senate - Military and Veterans Affairs</t>
+  </si>
+  <si>
+    <t>SB-223</t>
+  </si>
+  <si>
+    <t>Alvarado-Gil</t>
+  </si>
+  <si>
+    <t>The Wildfire Smoke and Health Outcomes Data Act.</t>
+  </si>
+  <si>
+    <t>Senate - Second Reading</t>
   </si>
   <si>
     <t>SB-248</t>
@@ -244,6 +273,15 @@
     <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
   </si>
   <si>
+    <t>SB-367</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Mental health.</t>
+  </si>
+  <si>
     <t>SB-373</t>
   </si>
   <si>
@@ -259,6 +297,9 @@
     <t>Physicians and surgeons: special faculty permits: comprehensive cancer centers.</t>
   </si>
   <si>
+    <t>Senate - Third Reading</t>
+  </si>
+  <si>
     <t>SB-388</t>
   </si>
   <si>
@@ -280,9 +321,6 @@
     <t>Retirement: joint powers authorities.</t>
   </si>
   <si>
-    <t>Senate - Third Reading</t>
-  </si>
-  <si>
     <t>SB-491</t>
   </si>
   <si>
@@ -328,6 +366,9 @@
     <t xml:space="preserve">Insurer financial statements. </t>
   </si>
   <si>
+    <t>Senate - Consent</t>
+  </si>
+  <si>
     <t>SB-616</t>
   </si>
   <si>
@@ -337,9 +378,6 @@
     <t>SB-630</t>
   </si>
   <si>
-    <t>Allen</t>
-  </si>
-  <si>
     <t>SB-641</t>
   </si>
   <si>
@@ -382,9 +420,6 @@
     <t>Municipal wastewater agency: new agreement or amendment.</t>
   </si>
   <si>
-    <t>Senate - Environmental Quality</t>
-  </si>
-  <si>
     <t>SB-783</t>
   </si>
   <si>
@@ -397,9 +432,6 @@
     <t>Veterans.</t>
   </si>
   <si>
-    <t>Senate - Military and Veterans Affairs</t>
-  </si>
-  <si>
     <t>SB-814</t>
   </si>
   <si>
@@ -413,9 +445,6 @@
   </si>
   <si>
     <t>Electricity: transmission planning and permitting.</t>
-  </si>
-  <si>
-    <t>Senate - Energy, Utilities and Communications</t>
   </si>
   <si>
     <t>SB-841</t>
@@ -433,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -512,39 +541,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -577,26 +606,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -629,23 +641,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,6 +702,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -715,13 +717,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -786,53 +781,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53E454F-31A1-4916-B48A-DCEE3144B5BE}">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="94.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="44.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="94.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,7 +827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -892,7 +867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -912,7 +887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -932,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -949,15 +924,15 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -966,198 +941,198 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1166,13 +1141,13 @@
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -1186,38 +1161,38 @@
         <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1226,490 +1201,570 @@
         <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>86</v>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-04-23_1527" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-04-24_1500" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -225,9 +225,6 @@
     <t>The Wildfire Smoke and Health Outcomes Data Act.</t>
   </si>
   <si>
-    <t>Senate - Second Reading</t>
-  </si>
-  <si>
     <t>SB-248</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
   </si>
   <si>
-    <t>Senate - Insurance</t>
-  </si>
-  <si>
     <t>SB-581</t>
   </si>
   <si>
@@ -366,7 +360,7 @@
     <t xml:space="preserve">Insurer financial statements. </t>
   </si>
   <si>
-    <t>Senate - Consent</t>
+    <t/>
   </si>
   <si>
     <t>SB-616</t>
@@ -1164,21 +1158,21 @@
         <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>32</v>
@@ -1189,56 +1183,56 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>37</v>
@@ -1249,16 +1243,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>32</v>
@@ -1269,16 +1263,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>37</v>
@@ -1289,16 +1283,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>37</v>
@@ -1309,36 +1303,36 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>37</v>
@@ -1349,16 +1343,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>37</v>
@@ -1369,107 +1363,107 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -1478,18 +1472,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -1498,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>32</v>
@@ -1509,10 +1503,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -1524,32 +1518,32 @@
         <v>37</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>40</v>
@@ -1558,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>37</v>
@@ -1569,7 +1563,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
@@ -1578,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>32</v>
@@ -1589,16 +1583,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
@@ -1609,7 +1603,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -1618,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>37</v>
@@ -1629,7 +1623,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -1638,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>32</v>
@@ -1649,7 +1643,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
@@ -1658,18 +1652,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
@@ -1678,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>32</v>
@@ -1689,7 +1683,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>40</v>
@@ -1698,18 +1692,18 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>40</v>
@@ -1718,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>32</v>
@@ -1729,7 +1723,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>40</v>
@@ -1738,18 +1732,18 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>40</v>
@@ -1758,13 +1752,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-04-24_1500" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-05-02_0930" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -66,19 +66,7 @@
     <t>Sexual and reproductive health care.</t>
   </si>
   <si>
-    <t>Assembly - Business and Professions</t>
-  </si>
-  <si>
-    <t>AB-379</t>
-  </si>
-  <si>
-    <t>Krell</t>
-  </si>
-  <si>
-    <t>Crimes: prostitution.</t>
-  </si>
-  <si>
-    <t>Assembly - Public Safety</t>
+    <t>Assembly - Appropriations</t>
   </si>
   <si>
     <t>AB-380</t>
@@ -90,9 +78,6 @@
     <t>Price gouging.</t>
   </si>
   <si>
-    <t>Assembly - Appropriations</t>
-  </si>
-  <si>
     <t>AB-573</t>
   </si>
   <si>
@@ -102,6 +87,15 @@
     <t>Cigarette and tobacco products: licensing and enforcement.</t>
   </si>
   <si>
+    <t>AB-957</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>Cigarette and tobacco products: retail sale: pharmacies.</t>
+  </si>
+  <si>
     <t>AB-1138</t>
   </si>
   <si>
@@ -147,7 +141,7 @@
     <t>Food Desert Elimination Grant Program.</t>
   </si>
   <si>
-    <t>Senate - Agriculture</t>
+    <t>Senate - Second Reading</t>
   </si>
   <si>
     <t>SB-19</t>
@@ -165,255 +159,246 @@
     <t>Water quality: recycled water.</t>
   </si>
   <si>
+    <t>SB-40</t>
+  </si>
+  <si>
+    <t>Wiener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health care coverage: insulin. </t>
+  </si>
+  <si>
+    <t>SB-48</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Immigration enforcement: schoolsites: prohibitions on access and sharing information.</t>
+  </si>
+  <si>
+    <t>SB-72</t>
+  </si>
+  <si>
+    <t>Caballero</t>
+  </si>
+  <si>
+    <t>The California Water Plan: long-term supply targets.</t>
+  </si>
+  <si>
+    <t>SB-84</t>
+  </si>
+  <si>
+    <t>Niello</t>
+  </si>
+  <si>
+    <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
+  </si>
+  <si>
+    <t>SB-99</t>
+  </si>
+  <si>
+    <t>Family childcare homes: United States Armed Forces.</t>
+  </si>
+  <si>
+    <t>SB-223</t>
+  </si>
+  <si>
+    <t>Alvarado-Gil</t>
+  </si>
+  <si>
+    <t>The Wildfire Smoke and Health Outcomes Data Act.</t>
+  </si>
+  <si>
+    <t>SB-248</t>
+  </si>
+  <si>
+    <t>Firearms: information to new owners.</t>
+  </si>
+  <si>
+    <t>SB-258</t>
+  </si>
+  <si>
+    <t>Wahab</t>
+  </si>
+  <si>
+    <t>Crimes: rape.</t>
+  </si>
+  <si>
+    <t>SB-267</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
+  </si>
+  <si>
+    <t>Senate - Revenue and Taxation</t>
+  </si>
+  <si>
+    <t>SB-341</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
+  </si>
+  <si>
+    <t>SB-360</t>
+  </si>
+  <si>
+    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
+  </si>
+  <si>
+    <t>SB-367</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Mental health.</t>
+  </si>
+  <si>
+    <t>SB-373</t>
+  </si>
+  <si>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>Special education: nonpublic, nonsectarian schools or agencies.</t>
+  </si>
+  <si>
+    <t>SB-387</t>
+  </si>
+  <si>
+    <t>Physicians and surgeons: special faculty permits: comprehensive cancer centers.</t>
+  </si>
+  <si>
+    <t>Senate - Third Reading</t>
+  </si>
+  <si>
+    <t>SB-388</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>California Latino Commission.</t>
+  </si>
+  <si>
+    <t>SB-425</t>
+  </si>
+  <si>
+    <t>Bonds: public entities as beneficiaries.</t>
+  </si>
+  <si>
+    <t>Senate - Judiciary</t>
+  </si>
+  <si>
+    <t>SB-443</t>
+  </si>
+  <si>
+    <t>Retirement: joint powers authorities.</t>
+  </si>
+  <si>
+    <t>SB-491</t>
+  </si>
+  <si>
+    <t>Laird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
+  </si>
+  <si>
+    <t>SB-531</t>
+  </si>
+  <si>
+    <t>Course of study: mental health education.</t>
+  </si>
+  <si>
+    <t>Senate - Education</t>
+  </si>
+  <si>
+    <t>SB-547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
+  </si>
+  <si>
+    <t>SB-581</t>
+  </si>
+  <si>
+    <t>McGuire</t>
+  </si>
+  <si>
+    <t>Department of Forestry and Fire Protection: employment: firefighters.</t>
+  </si>
+  <si>
+    <t>SB-583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurer financial statements. </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SB-616</t>
+  </si>
+  <si>
+    <t>Community Hardening Commission: wildfire mitigation program.</t>
+  </si>
+  <si>
+    <t>SB-630</t>
+  </si>
+  <si>
+    <t>SB-641</t>
+  </si>
+  <si>
+    <t>Ashby</t>
+  </si>
+  <si>
+    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
+  </si>
+  <si>
+    <t>SB-672</t>
+  </si>
+  <si>
+    <t>The Youth Rehabilitation and Opportunity Act.</t>
+  </si>
+  <si>
+    <t>SB-680</t>
+  </si>
+  <si>
+    <t>Sex offender registration: unlawful sexual intercourse with a minor.</t>
+  </si>
+  <si>
+    <t>SB-702</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>Legislative and gubernatorial appointments: report.</t>
+  </si>
+  <si>
+    <t>SB-738</t>
+  </si>
+  <si>
+    <t>The Reclaim Act.</t>
+  </si>
+  <si>
+    <t>SB-740</t>
+  </si>
+  <si>
+    <t>Municipal wastewater agency: new agreement or amendment.</t>
+  </si>
+  <si>
     <t>Senate - Environmental Quality</t>
   </si>
   <si>
-    <t>SB-40</t>
-  </si>
-  <si>
-    <t>Wiener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health care coverage: insulin. </t>
-  </si>
-  <si>
-    <t>SB-48</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Immigration enforcement: schoolsites: prohibitions on access and sharing information.</t>
-  </si>
-  <si>
-    <t>Senate - Judiciary</t>
-  </si>
-  <si>
-    <t>SB-72</t>
-  </si>
-  <si>
-    <t>Caballero</t>
-  </si>
-  <si>
-    <t>The California Water Plan: long-term supply targets.</t>
-  </si>
-  <si>
-    <t>SB-84</t>
-  </si>
-  <si>
-    <t>Niello</t>
-  </si>
-  <si>
-    <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
-  </si>
-  <si>
-    <t>SB-99</t>
-  </si>
-  <si>
-    <t>Family childcare homes: United States Armed Forces.</t>
-  </si>
-  <si>
-    <t>Senate - Military and Veterans Affairs</t>
-  </si>
-  <si>
-    <t>SB-223</t>
-  </si>
-  <si>
-    <t>Alvarado-Gil</t>
-  </si>
-  <si>
-    <t>The Wildfire Smoke and Health Outcomes Data Act.</t>
-  </si>
-  <si>
-    <t>SB-248</t>
-  </si>
-  <si>
-    <t>Firearms: information to new owners.</t>
-  </si>
-  <si>
-    <t>SB-258</t>
-  </si>
-  <si>
-    <t>Wahab</t>
-  </si>
-  <si>
-    <t>Crimes: rape.</t>
-  </si>
-  <si>
-    <t>Senate - Public Safety</t>
-  </si>
-  <si>
-    <t>SB-267</t>
-  </si>
-  <si>
-    <t>Choi</t>
-  </si>
-  <si>
-    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
-  </si>
-  <si>
-    <t>Senate - Revenue and Taxation</t>
-  </si>
-  <si>
-    <t>SB-341</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
-  </si>
-  <si>
-    <t>SB-360</t>
-  </si>
-  <si>
-    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
-  </si>
-  <si>
-    <t>SB-367</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Mental health.</t>
-  </si>
-  <si>
-    <t>SB-373</t>
-  </si>
-  <si>
-    <t>Grove</t>
-  </si>
-  <si>
-    <t>Special education: nonpublic, nonsectarian schools or agencies.</t>
-  </si>
-  <si>
-    <t>SB-387</t>
-  </si>
-  <si>
-    <t>Physicians and surgeons: special faculty permits: comprehensive cancer centers.</t>
-  </si>
-  <si>
-    <t>Senate - Third Reading</t>
-  </si>
-  <si>
-    <t>SB-388</t>
-  </si>
-  <si>
-    <t>Padilla</t>
-  </si>
-  <si>
-    <t>California Latino Commission.</t>
-  </si>
-  <si>
-    <t>SB-425</t>
-  </si>
-  <si>
-    <t>Bonds: public entities as beneficiaries.</t>
-  </si>
-  <si>
-    <t>SB-443</t>
-  </si>
-  <si>
-    <t>Retirement: joint powers authorities.</t>
-  </si>
-  <si>
-    <t>SB-491</t>
-  </si>
-  <si>
-    <t>Laird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
-  </si>
-  <si>
-    <t>SB-531</t>
-  </si>
-  <si>
-    <t>Course of study: mental health education.</t>
-  </si>
-  <si>
-    <t>Senate - Education</t>
-  </si>
-  <si>
-    <t>SB-547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
-  </si>
-  <si>
-    <t>SB-581</t>
-  </si>
-  <si>
-    <t>McGuire</t>
-  </si>
-  <si>
-    <t>Department of Forestry and Fire Protection: employment: firefighters.</t>
-  </si>
-  <si>
-    <t>Senate - Labor, Public Employment and Retirement</t>
-  </si>
-  <si>
-    <t>SB-583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurer financial statements. </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SB-616</t>
-  </si>
-  <si>
-    <t>Community Hardening Commission: wildfire mitigation program.</t>
-  </si>
-  <si>
-    <t>SB-630</t>
-  </si>
-  <si>
-    <t>SB-641</t>
-  </si>
-  <si>
-    <t>Ashby</t>
-  </si>
-  <si>
-    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
-  </si>
-  <si>
-    <t>SB-672</t>
-  </si>
-  <si>
-    <t>The Youth Rehabilitation and Opportunity Act.</t>
-  </si>
-  <si>
-    <t>SB-680</t>
-  </si>
-  <si>
-    <t>Sex offender registration: unlawful sexual intercourse with a minor.</t>
-  </si>
-  <si>
-    <t>SB-702</t>
-  </si>
-  <si>
-    <t>Limón</t>
-  </si>
-  <si>
-    <t>Legislative and gubernatorial appointments: report.</t>
-  </si>
-  <si>
-    <t>SB-738</t>
-  </si>
-  <si>
-    <t>The Reclaim Act.</t>
-  </si>
-  <si>
-    <t>SB-740</t>
-  </si>
-  <si>
-    <t>Municipal wastewater agency: new agreement or amendment.</t>
-  </si>
-  <si>
     <t>SB-783</t>
   </si>
   <si>
@@ -426,13 +411,13 @@
     <t>Veterans.</t>
   </si>
   <si>
+    <t>Senate - Consent</t>
+  </si>
+  <si>
     <t>SB-814</t>
   </si>
   <si>
     <t>Homelessness.</t>
-  </si>
-  <si>
-    <t>Senate - Housing</t>
   </si>
   <si>
     <t>SB-836</t>
@@ -798,7 +783,7 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="94.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -878,887 +863,887 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-05-02_0930" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-05-06_1054" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="137">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -141,9 +141,6 @@
     <t>Food Desert Elimination Grant Program.</t>
   </si>
   <si>
-    <t>Senate - Second Reading</t>
-  </si>
-  <si>
     <t>SB-19</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t xml:space="preserve">Insurer financial statements. </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>SB-616</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
     <t>Veterans.</t>
   </si>
   <si>
-    <t>Senate - Consent</t>
-  </si>
-  <si>
     <t>SB-814</t>
   </si>
   <si>
@@ -436,6 +427,9 @@
   </si>
   <si>
     <t>Horse racing: out-of-state thoroughbred races.</t>
+  </si>
+  <si>
+    <t>Assembly</t>
   </si>
 </sst>
 </file>
@@ -774,7 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -983,21 +979,21 @@
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>35</v>
@@ -1008,16 +1004,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>35</v>
@@ -1028,16 +1024,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
@@ -1048,16 +1044,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>35</v>
@@ -1068,16 +1064,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
@@ -1088,16 +1084,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>35</v>
@@ -1108,7 +1104,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -1117,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>35</v>
@@ -1128,16 +1124,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>35</v>
@@ -1148,16 +1144,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
@@ -1168,16 +1164,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>35</v>
@@ -1188,36 +1184,36 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
@@ -1228,16 +1224,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>30</v>
@@ -1248,16 +1244,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>35</v>
@@ -1268,16 +1264,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>35</v>
@@ -1288,36 +1284,36 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>35</v>
@@ -1328,116 +1324,116 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>35</v>
@@ -1448,27 +1444,27 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
@@ -1477,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
@@ -1488,10 +1484,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -1508,16 +1504,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>35</v>
@@ -1528,7 +1524,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
@@ -1537,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>35</v>
@@ -1548,7 +1544,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -1557,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>30</v>
@@ -1568,16 +1564,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>35</v>
@@ -1588,7 +1584,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>38</v>
@@ -1597,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>35</v>
@@ -1608,7 +1604,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>38</v>
@@ -1617,18 +1613,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>38</v>
@@ -1637,18 +1633,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>38</v>
@@ -1657,18 +1653,18 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>38</v>
@@ -1677,7 +1673,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>30</v>
@@ -1688,7 +1684,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>38</v>
@@ -1697,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>30</v>
@@ -1708,7 +1704,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>38</v>
@@ -1717,7 +1713,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>35</v>
@@ -1728,7 +1724,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>38</v>
@@ -1737,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-05-06_1054" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-05-08_1643" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="142">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -54,7 +54,7 @@
     <t>Amended Assembly</t>
   </si>
   <si>
-    <t>Assembly - Revenue and Taxation</t>
+    <t>Assembly - Appropriations</t>
   </si>
   <si>
     <t>AB-260</t>
@@ -66,9 +66,6 @@
     <t>Sexual and reproductive health care.</t>
   </si>
   <si>
-    <t>Assembly - Appropriations</t>
-  </si>
-  <si>
     <t>AB-380</t>
   </si>
   <si>
@@ -183,6 +180,15 @@
     <t>The California Water Plan: long-term supply targets.</t>
   </si>
   <si>
+    <t>SB-81</t>
+  </si>
+  <si>
+    <t>Arreguín</t>
+  </si>
+  <si>
+    <t>Health and care facilities: information sharing.</t>
+  </si>
+  <si>
     <t>SB-84</t>
   </si>
   <si>
@@ -232,6 +238,15 @@
   </si>
   <si>
     <t>Senate - Revenue and Taxation</t>
+  </si>
+  <si>
+    <t>SB-338</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Virtual Health Hub for Rural Communities Pilot Program.</t>
   </si>
   <si>
     <t>SB-341</t>
@@ -766,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,275 +854,275 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1116,10 +1131,10 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,27 +1142,27 @@
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1156,10 +1171,10 @@
         <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1167,67 +1182,67 @@
         <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1236,10 +1251,10 @@
         <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1256,10 +1271,10 @@
         <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1267,27 +1282,27 @@
         <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1296,58 +1311,58 @@
         <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -1356,10 +1371,10 @@
         <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1367,19 +1382,19 @@
         <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1387,7 +1402,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1396,18 +1411,18 @@
         <v>97</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1416,10 +1431,10 @@
         <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,19 +1442,19 @@
         <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1447,7 +1462,7 @@
         <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -1456,10 +1471,10 @@
         <v>105</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1467,79 +1482,79 @@
         <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1547,27 +1562,27 @@
         <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1576,10 +1591,10 @@
         <v>118</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1587,7 +1602,7 @@
         <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1596,10 +1611,10 @@
         <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1607,19 +1622,19 @@
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1627,7 +1642,7 @@
         <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -1636,10 +1651,10 @@
         <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1647,7 +1662,7 @@
         <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -1656,90 +1671,130 @@
         <v>127</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-05-08_1643" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-05-16_0957" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -66,6 +66,9 @@
     <t>Sexual and reproductive health care.</t>
   </si>
   <si>
+    <t>Assembly - Third Reading</t>
+  </si>
+  <si>
     <t>AB-380</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t>Personal income tax: credit: qualified teacher: school supplies.</t>
   </si>
   <si>
-    <t>Senate - Revenue and Taxation</t>
-  </si>
-  <si>
     <t>SB-338</t>
   </si>
   <si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">Insurer financial statements. </t>
+  </si>
+  <si>
+    <t>Assembly - Insurance</t>
   </si>
   <si>
     <t>SB-616</t>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -854,21 +857,21 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -879,16 +882,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -899,16 +902,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -919,16 +922,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -939,302 +942,302 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1251,10 +1254,10 @@
         <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1271,10 +1274,10 @@
         <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,7 +1285,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1291,10 +1294,10 @@
         <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1311,10 +1314,10 @@
         <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1331,10 +1334,10 @@
         <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1342,7 +1345,7 @@
         <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1351,7 +1354,7 @@
         <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>89</v>
@@ -1371,10 +1374,10 @@
         <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1382,7 +1385,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1391,7 +1394,7 @@
         <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>95</v>
@@ -1402,7 +1405,7 @@
         <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1411,7 +1414,7 @@
         <v>97</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>89</v>
@@ -1431,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>89</v>
@@ -1442,7 +1445,7 @@
         <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1451,7 +1454,7 @@
         <v>102</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>103</v>
@@ -1471,7 +1474,7 @@
         <v>105</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>89</v>
@@ -1491,10 +1494,10 @@
         <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1502,7 +1505,7 @@
         <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -1511,35 +1514,35 @@
         <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>82</v>
@@ -1548,150 +1551,150 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>89</v>
@@ -1699,99 +1702,99 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>89</v>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-05-16_0957" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-05-22_1019" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -66,9 +66,6 @@
     <t>Sexual and reproductive health care.</t>
   </si>
   <si>
-    <t>Assembly - Third Reading</t>
-  </si>
-  <si>
     <t>AB-380</t>
   </si>
   <si>
@@ -423,6 +420,9 @@
     <t>Veterans.</t>
   </si>
   <si>
+    <t>Assembly - Military and Veterans Affairs</t>
+  </si>
+  <si>
     <t>SB-814</t>
   </si>
   <si>
@@ -447,7 +447,7 @@
     <t>Horse racing: out-of-state thoroughbred races.</t>
   </si>
   <si>
-    <t>Assembly</t>
+    <t>Senate</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -857,21 +857,21 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -882,16 +882,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -902,16 +902,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -922,16 +922,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -942,782 +942,782 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -1734,10 +1734,10 @@
         <v>135</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
         <v>136</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -1754,10 +1754,10 @@
         <v>137</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -1774,10 +1774,10 @@
         <v>139</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,7 +1785,7 @@
         <v>140</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -1794,10 +1794,10 @@
         <v>141</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-05-22_1019" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-06-04_1332" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -54,9 +54,6 @@
     <t>Amended Assembly</t>
   </si>
   <si>
-    <t>Assembly - Appropriations</t>
-  </si>
-  <si>
     <t>AB-260</t>
   </si>
   <si>
@@ -66,6 +63,12 @@
     <t>Sexual and reproductive health care.</t>
   </si>
   <si>
+    <t>Amended Senate</t>
+  </si>
+  <si>
+    <t>Senate - Health</t>
+  </si>
+  <si>
     <t>AB-380</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
     <t>Price gouging.</t>
   </si>
   <si>
+    <t>Assembly - Passed</t>
+  </si>
+  <si>
     <t>AB-573</t>
   </si>
   <si>
@@ -123,9 +129,6 @@
     <t>Firearms.</t>
   </si>
   <si>
-    <t>Amended Senate</t>
-  </si>
-  <si>
     <t>Senate - Appropriations</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
     <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
   </si>
   <si>
+    <t>Senate - Passed</t>
+  </si>
+  <si>
     <t>SB-99</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Firearms: information to new owners.</t>
   </si>
   <si>
+    <t>Senate - Third Reading</t>
+  </si>
+  <si>
     <t>SB-258</t>
   </si>
   <si>
@@ -285,9 +294,6 @@
     <t>Physicians and surgeons: special faculty permits: comprehensive cancer centers.</t>
   </si>
   <si>
-    <t>Senate - Third Reading</t>
-  </si>
-  <si>
     <t>SB-388</t>
   </si>
   <si>
@@ -448,6 +454,9 @@
   </si>
   <si>
     <t>Senate</t>
+  </si>
+  <si>
+    <t>Assembly</t>
   </si>
 </sst>
 </file>
@@ -787,7 +796,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -837,967 +846,967 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-06-04_1332" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-06-04_1735" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="144">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -54,6 +54,9 @@
     <t>Amended Assembly</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>AB-260</t>
   </si>
   <si>
@@ -78,9 +81,6 @@
     <t>Price gouging.</t>
   </si>
   <si>
-    <t>Assembly - Passed</t>
-  </si>
-  <si>
     <t>AB-573</t>
   </si>
   <si>
@@ -117,9 +117,6 @@
     <t>Introduced</t>
   </si>
   <si>
-    <t>Assembly - Education</t>
-  </si>
-  <si>
     <t>SB-15</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Firearms.</t>
   </si>
   <si>
-    <t>Senate - Appropriations</t>
-  </si>
-  <si>
     <t>SB-18</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
   </si>
   <si>
-    <t>Senate - Passed</t>
-  </si>
-  <si>
     <t>SB-99</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>Firearms: information to new owners.</t>
   </si>
   <si>
-    <t>Senate - Third Reading</t>
-  </si>
-  <si>
     <t>SB-258</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>Bonds: public entities as beneficiaries.</t>
   </si>
   <si>
-    <t>Senate - Judiciary</t>
-  </si>
-  <si>
     <t>SB-443</t>
   </si>
   <si>
@@ -333,9 +318,6 @@
     <t>Course of study: mental health education.</t>
   </si>
   <si>
-    <t>Senate - Education</t>
-  </si>
-  <si>
     <t>SB-547</t>
   </si>
   <si>
@@ -411,9 +393,6 @@
     <t>Municipal wastewater agency: new agreement or amendment.</t>
   </si>
   <si>
-    <t>Senate - Environmental Quality</t>
-  </si>
-  <si>
     <t>SB-783</t>
   </si>
   <si>
@@ -453,10 +432,25 @@
     <t>Horse racing: out-of-state thoroughbred races.</t>
   </si>
   <si>
-    <t>Senate</t>
-  </si>
-  <si>
-    <t>Assembly</t>
+    <t>to Senate</t>
+  </si>
+  <si>
+    <t>to Assembly</t>
+  </si>
+  <si>
+    <t>HELD Senate - Education</t>
+  </si>
+  <si>
+    <t>HELD Senate - Appropriations</t>
+  </si>
+  <si>
+    <t>HELD Senate - Environmental Quality</t>
+  </si>
+  <si>
+    <t>HELD Senate - Judiciary</t>
+  </si>
+  <si>
+    <t>HELD Assembly - Education</t>
   </si>
 </sst>
 </file>
@@ -796,7 +790,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -846,47 +840,47 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -906,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -926,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -946,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -966,595 +960,595 @@
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1563,250 +1557,250 @@
         <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-06-04_1735" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-06-18_0953" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="155">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -54,7 +54,7 @@
     <t>Amended Assembly</t>
   </si>
   <si>
-    <t/>
+    <t>Senate - Revenue and Taxation</t>
   </si>
   <si>
     <t>AB-260</t>
@@ -69,7 +69,7 @@
     <t>Amended Senate</t>
   </si>
   <si>
-    <t>Senate - Health</t>
+    <t>Senate - Business, Professions and Economic Development</t>
   </si>
   <si>
     <t>AB-380</t>
@@ -117,6 +117,9 @@
     <t>Introduced</t>
   </si>
   <si>
+    <t>Assembly - Education</t>
+  </si>
+  <si>
     <t>SB-15</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
     <t>Firearms.</t>
   </si>
   <si>
+    <t>Senate - Appropriations</t>
+  </si>
+  <si>
     <t>SB-18</t>
   </si>
   <si>
@@ -135,12 +141,18 @@
     <t>Food Desert Elimination Grant Program.</t>
   </si>
   <si>
+    <t>Assembly - Agriculture</t>
+  </si>
+  <si>
     <t>SB-19</t>
   </si>
   <si>
     <t>Threats: schools and places of worship.</t>
   </si>
   <si>
+    <t>Assembly - Public Safety</t>
+  </si>
+  <si>
     <t>SB-31</t>
   </si>
   <si>
@@ -150,6 +162,9 @@
     <t>Water quality: recycled water.</t>
   </si>
   <si>
+    <t>Assembly - Environmental Safety and Toxic Materials</t>
+  </si>
+  <si>
     <t>SB-40</t>
   </si>
   <si>
@@ -159,6 +174,9 @@
     <t xml:space="preserve">Health care coverage: insulin. </t>
   </si>
   <si>
+    <t>Assembly - Health</t>
+  </si>
+  <si>
     <t>SB-48</t>
   </si>
   <si>
@@ -177,6 +195,9 @@
     <t>The California Water Plan: long-term supply targets.</t>
   </si>
   <si>
+    <t>Assembly - Water, Parks and Wildlife</t>
+  </si>
+  <si>
     <t>SB-81</t>
   </si>
   <si>
@@ -195,6 +216,9 @@
     <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
   </si>
   <si>
+    <t>Assembly - Judiciary</t>
+  </si>
+  <si>
     <t>SB-99</t>
   </si>
   <si>
@@ -279,7 +303,10 @@
     <t>SB-387</t>
   </si>
   <si>
-    <t>Physicians and surgeons: special faculty permits: comprehensive cancer centers.</t>
+    <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
+  </si>
+  <si>
+    <t>Assembly - Business and Professions</t>
   </si>
   <si>
     <t>SB-388</t>
@@ -291,18 +318,27 @@
     <t>California Latino Commission.</t>
   </si>
   <si>
+    <t>Assembly - Governmental Organization</t>
+  </si>
+  <si>
     <t>SB-425</t>
   </si>
   <si>
     <t>Bonds: public entities as beneficiaries.</t>
   </si>
   <si>
+    <t>Senate - Judiciary</t>
+  </si>
+  <si>
     <t>SB-443</t>
   </si>
   <si>
     <t>Retirement: joint powers authorities.</t>
   </si>
   <si>
+    <t>Assembly - Public Employment and Retirement</t>
+  </si>
+  <si>
     <t>SB-491</t>
   </si>
   <si>
@@ -312,18 +348,27 @@
     <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
   </si>
   <si>
+    <t>Assembly - Utilities and Energy</t>
+  </si>
+  <si>
     <t>SB-531</t>
   </si>
   <si>
     <t>Course of study: mental health education.</t>
   </si>
   <si>
+    <t>Senate - Education</t>
+  </si>
+  <si>
     <t>SB-547</t>
   </si>
   <si>
     <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
   </si>
   <si>
+    <t>Assembly - Insurance</t>
+  </si>
+  <si>
     <t>SB-581</t>
   </si>
   <si>
@@ -339,18 +384,21 @@
     <t xml:space="preserve">Insurer financial statements. </t>
   </si>
   <si>
-    <t>Assembly - Insurance</t>
-  </si>
-  <si>
     <t>SB-616</t>
   </si>
   <si>
     <t>Community Hardening Commission: wildfire mitigation program.</t>
   </si>
   <si>
+    <t>Assembly - Emergency Management</t>
+  </si>
+  <si>
     <t>SB-630</t>
   </si>
   <si>
+    <t>Assembly - Arts, Entertainment, Sports, and Tourism</t>
+  </si>
+  <si>
     <t>SB-641</t>
   </si>
   <si>
@@ -393,6 +441,9 @@
     <t>Municipal wastewater agency: new agreement or amendment.</t>
   </si>
   <si>
+    <t>Senate - Environmental Quality</t>
+  </si>
+  <si>
     <t>SB-783</t>
   </si>
   <si>
@@ -432,25 +483,7 @@
     <t>Horse racing: out-of-state thoroughbred races.</t>
   </si>
   <si>
-    <t>to Senate</t>
-  </si>
-  <si>
-    <t>to Assembly</t>
-  </si>
-  <si>
-    <t>HELD Senate - Education</t>
-  </si>
-  <si>
-    <t>HELD Senate - Appropriations</t>
-  </si>
-  <si>
-    <t>HELD Senate - Environmental Quality</t>
-  </si>
-  <si>
-    <t>HELD Senate - Judiciary</t>
-  </si>
-  <si>
-    <t>HELD Assembly - Education</t>
+    <t>Senate - Rules</t>
   </si>
 </sst>
 </file>
@@ -790,7 +823,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -800,7 +833,7 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="94.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -840,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -880,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -900,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -920,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -940,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -960,595 +993,595 @@
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1560,247 +1593,247 @@
         <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-06-18_0953" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-07-11_1229" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="195">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -57,6 +57,21 @@
     <t>Senate - Revenue and Taxation</t>
   </si>
   <si>
+    <t>AB-61</t>
+  </si>
+  <si>
+    <t>Pacheco</t>
+  </si>
+  <si>
+    <t>Electricity and natural gas: legislation imposing mandated programs and requirements: third-party review.</t>
+  </si>
+  <si>
+    <t>Amended Senate</t>
+  </si>
+  <si>
+    <t>Senate - Appropriations</t>
+  </si>
+  <si>
     <t>AB-260</t>
   </si>
   <si>
@@ -66,10 +81,13 @@
     <t>Sexual and reproductive health care.</t>
   </si>
   <si>
-    <t>Amended Senate</t>
-  </si>
-  <si>
-    <t>Senate - Business, Professions and Economic Development</t>
+    <t>AB-261</t>
+  </si>
+  <si>
+    <t>Quirk-Silva</t>
+  </si>
+  <si>
+    <t>Fire safety: fire hazard severity zones: State Fire Marshal.</t>
   </si>
   <si>
     <t>AB-380</t>
@@ -90,6 +108,15 @@
     <t>Cigarette and tobacco products: licensing and enforcement.</t>
   </si>
   <si>
+    <t>AB-594</t>
+  </si>
+  <si>
+    <t>Solache</t>
+  </si>
+  <si>
+    <t>Student health insurance.</t>
+  </si>
+  <si>
     <t>AB-957</t>
   </si>
   <si>
@@ -99,6 +126,9 @@
     <t>Cigarette and tobacco products: retail sale: pharmacies.</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>AB-1138</t>
   </si>
   <si>
@@ -108,6 +138,18 @@
     <t>Income and corporate taxes: tax credits: motion pictures.</t>
   </si>
   <si>
+    <t>Chaptered</t>
+  </si>
+  <si>
+    <t>AB-1303</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Communications: lifeline telephone service program.</t>
+  </si>
+  <si>
     <t>AB-1468</t>
   </si>
   <si>
@@ -129,9 +171,6 @@
     <t>Firearms.</t>
   </si>
   <si>
-    <t>Senate - Appropriations</t>
-  </si>
-  <si>
     <t>SB-18</t>
   </si>
   <si>
@@ -141,7 +180,7 @@
     <t>Food Desert Elimination Grant Program.</t>
   </si>
   <si>
-    <t>Assembly - Agriculture</t>
+    <t>Assembly - Appropriations</t>
   </si>
   <si>
     <t>SB-19</t>
@@ -150,138 +189,186 @@
     <t>Threats: schools and places of worship.</t>
   </si>
   <si>
+    <t>SB-31</t>
+  </si>
+  <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Water quality: recycled water.</t>
+  </si>
+  <si>
+    <t>SB-40</t>
+  </si>
+  <si>
+    <t>Wiener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health care coverage: insulin. </t>
+  </si>
+  <si>
+    <t>Assembly - Health</t>
+  </si>
+  <si>
+    <t>SB-48</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Immigration enforcement: schoolsites: prohibitions on access and sharing information.</t>
+  </si>
+  <si>
+    <t>Assembly - Judiciary</t>
+  </si>
+  <si>
+    <t>SB-53</t>
+  </si>
+  <si>
+    <t>Artificial intelligence models: large developers.</t>
+  </si>
+  <si>
+    <t>Assembly - Privacy and Consumer Protection</t>
+  </si>
+  <si>
+    <t>SB-56</t>
+  </si>
+  <si>
+    <t>Seyarto</t>
+  </si>
+  <si>
+    <t>Property taxation: disabled veterans’ exemption: household income.</t>
+  </si>
+  <si>
+    <t>Assembly - Revenue and Taxation</t>
+  </si>
+  <si>
+    <t>SB-72</t>
+  </si>
+  <si>
+    <t>Caballero</t>
+  </si>
+  <si>
+    <t>The California Water Plan: long-term supply targets.</t>
+  </si>
+  <si>
+    <t>SB-81</t>
+  </si>
+  <si>
+    <t>Arreguín</t>
+  </si>
+  <si>
+    <t>Health and care facilities: information sharing.</t>
+  </si>
+  <si>
+    <t>SB-84</t>
+  </si>
+  <si>
+    <t>Niello</t>
+  </si>
+  <si>
+    <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
+  </si>
+  <si>
+    <t>SB-99</t>
+  </si>
+  <si>
+    <t>Family childcare homes: United States Armed Forces.</t>
+  </si>
+  <si>
+    <t>SB-223</t>
+  </si>
+  <si>
+    <t>Alvarado-Gil</t>
+  </si>
+  <si>
+    <t>The Wildfire Smoke and Health Outcomes Data Act.</t>
+  </si>
+  <si>
+    <t>SB-243</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>Companion chatbots.</t>
+  </si>
+  <si>
+    <t>SB-248</t>
+  </si>
+  <si>
+    <t>Firearms: information to new owners.</t>
+  </si>
+  <si>
+    <t>SB-257</t>
+  </si>
+  <si>
+    <t>Wahab</t>
+  </si>
+  <si>
+    <t>Pregnancy As a Recognized Event for Nondiscriminatory Treatment (PARENT) Act.</t>
+  </si>
+  <si>
+    <t>SB-258</t>
+  </si>
+  <si>
+    <t>Crimes: rape.</t>
+  </si>
+  <si>
     <t>Assembly - Public Safety</t>
   </si>
   <si>
-    <t>SB-31</t>
-  </si>
-  <si>
-    <t>McNerney</t>
-  </si>
-  <si>
-    <t>Water quality: recycled water.</t>
-  </si>
-  <si>
-    <t>Assembly - Environmental Safety and Toxic Materials</t>
-  </si>
-  <si>
-    <t>SB-40</t>
-  </si>
-  <si>
-    <t>Wiener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health care coverage: insulin. </t>
-  </si>
-  <si>
-    <t>Assembly - Health</t>
-  </si>
-  <si>
-    <t>SB-48</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Immigration enforcement: schoolsites: prohibitions on access and sharing information.</t>
-  </si>
-  <si>
-    <t>SB-72</t>
-  </si>
-  <si>
-    <t>Caballero</t>
-  </si>
-  <si>
-    <t>The California Water Plan: long-term supply targets.</t>
+    <t>SB-267</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
+  </si>
+  <si>
+    <t>SB-296</t>
+  </si>
+  <si>
+    <t>Archuleta</t>
+  </si>
+  <si>
+    <t>Property taxation: exemption: disabled veteran homeowners.</t>
+  </si>
+  <si>
+    <t>SB-338</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Virtual Health Hub for Rural Communities Pilot Program.</t>
+  </si>
+  <si>
+    <t>SB-341</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
+  </si>
+  <si>
+    <t>SB-355</t>
+  </si>
+  <si>
+    <t>Judgment debtor employers: Employment Development Department.</t>
+  </si>
+  <si>
+    <t>SB-360</t>
+  </si>
+  <si>
+    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
   </si>
   <si>
     <t>Assembly - Water, Parks and Wildlife</t>
   </si>
   <si>
-    <t>SB-81</t>
-  </si>
-  <si>
-    <t>Arreguín</t>
-  </si>
-  <si>
-    <t>Health and care facilities: information sharing.</t>
-  </si>
-  <si>
-    <t>SB-84</t>
-  </si>
-  <si>
-    <t>Niello</t>
-  </si>
-  <si>
-    <t>Disability access: construction-related accessibility claims: notice of violation and opportunity to correct.</t>
-  </si>
-  <si>
-    <t>Assembly - Judiciary</t>
-  </si>
-  <si>
-    <t>SB-99</t>
-  </si>
-  <si>
-    <t>Family childcare homes: United States Armed Forces.</t>
-  </si>
-  <si>
-    <t>SB-223</t>
-  </si>
-  <si>
-    <t>Alvarado-Gil</t>
-  </si>
-  <si>
-    <t>The Wildfire Smoke and Health Outcomes Data Act.</t>
-  </si>
-  <si>
-    <t>SB-248</t>
-  </si>
-  <si>
-    <t>Firearms: information to new owners.</t>
-  </si>
-  <si>
-    <t>SB-258</t>
-  </si>
-  <si>
-    <t>Wahab</t>
-  </si>
-  <si>
-    <t>Crimes: rape.</t>
-  </si>
-  <si>
-    <t>SB-267</t>
-  </si>
-  <si>
-    <t>Choi</t>
-  </si>
-  <si>
-    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
-  </si>
-  <si>
-    <t>SB-338</t>
-  </si>
-  <si>
-    <t>Becker</t>
-  </si>
-  <si>
-    <t>Virtual Health Hub for Rural Communities Pilot Program.</t>
-  </si>
-  <si>
-    <t>SB-341</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
-  </si>
-  <si>
-    <t>SB-360</t>
-  </si>
-  <si>
-    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
-  </si>
-  <si>
     <t>SB-367</t>
   </si>
   <si>
@@ -306,150 +393,186 @@
     <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
   </si>
   <si>
-    <t>Assembly - Business and Professions</t>
+    <t>Assembly - Consent</t>
   </si>
   <si>
     <t>SB-388</t>
   </si>
   <si>
-    <t>Padilla</t>
-  </si>
-  <si>
     <t>California Latino Commission.</t>
   </si>
   <si>
+    <t>SB-394</t>
+  </si>
+  <si>
+    <t>Water theft: fire hydrants.</t>
+  </si>
+  <si>
+    <t>Senate - Unfinished Business</t>
+  </si>
+  <si>
+    <t>SB-425</t>
+  </si>
+  <si>
+    <t>Bonds: public entities as beneficiaries.</t>
+  </si>
+  <si>
+    <t>Senate - Judiciary</t>
+  </si>
+  <si>
+    <t>SB-429</t>
+  </si>
+  <si>
+    <t>Cortese</t>
+  </si>
+  <si>
+    <t>Wildfire Safety and Risk Mitigation Program.</t>
+  </si>
+  <si>
+    <t>Assembly - Emergency Management</t>
+  </si>
+  <si>
+    <t>SB-443</t>
+  </si>
+  <si>
+    <t>Retirement: joint powers authorities.</t>
+  </si>
+  <si>
+    <t>Assembly - Third Reading</t>
+  </si>
+  <si>
+    <t>SB-447</t>
+  </si>
+  <si>
+    <t>Umberg</t>
+  </si>
+  <si>
+    <t>Workers’ compensation: death benefits.</t>
+  </si>
+  <si>
+    <t>Assembly - Insurance</t>
+  </si>
+  <si>
+    <t>SB-491</t>
+  </si>
+  <si>
+    <t>Laird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
+  </si>
+  <si>
+    <t>SB-531</t>
+  </si>
+  <si>
+    <t>Course of study: mental health education.</t>
+  </si>
+  <si>
+    <t>Senate - Education</t>
+  </si>
+  <si>
+    <t>SB-547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
+  </si>
+  <si>
+    <t>SB-581</t>
+  </si>
+  <si>
+    <t>McGuire</t>
+  </si>
+  <si>
+    <t>Department of Forestry and Fire Protection: employment: firefighters.</t>
+  </si>
+  <si>
+    <t>Assembly - Natural Resources</t>
+  </si>
+  <si>
+    <t>SB-583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurer financial statements. </t>
+  </si>
+  <si>
+    <t>SB-616</t>
+  </si>
+  <si>
+    <t>Community Hardening Commission: wildfire mitigation program.</t>
+  </si>
+  <si>
+    <t>SB-638</t>
+  </si>
+  <si>
+    <t>California Education and Workforce Development Coordinating Entity: California Career Technical Education Incentive Grant Program.</t>
+  </si>
+  <si>
+    <t>Assembly - Higher Education</t>
+  </si>
+  <si>
+    <t>SB-641</t>
+  </si>
+  <si>
+    <t>Ashby</t>
+  </si>
+  <si>
+    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
+  </si>
+  <si>
+    <t>SB-672</t>
+  </si>
+  <si>
+    <t>The Youth Rehabilitation and Opportunity Act.</t>
+  </si>
+  <si>
+    <t>SB-680</t>
+  </si>
+  <si>
+    <t>Sex offender registration: unlawful sexual intercourse with a minor.</t>
+  </si>
+  <si>
+    <t>SB-702</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>Legislative and gubernatorial appointments: report.</t>
+  </si>
+  <si>
+    <t>SB-738</t>
+  </si>
+  <si>
+    <t>The Reclaim Act.</t>
+  </si>
+  <si>
+    <t>SB-740</t>
+  </si>
+  <si>
+    <t>Municipal wastewater agency: new agreement or amendment.</t>
+  </si>
+  <si>
+    <t>Senate - Environmental Quality</t>
+  </si>
+  <si>
+    <t>SB-764</t>
+  </si>
+  <si>
+    <t>Weber Pierson</t>
+  </si>
+  <si>
+    <t>Chain restaurants: children’s meals.</t>
+  </si>
+  <si>
+    <t>SB-783</t>
+  </si>
+  <si>
+    <t>Outdoor advertising displays: redevelopment agency project areas.</t>
+  </si>
+  <si>
     <t>Assembly - Governmental Organization</t>
   </si>
   <si>
-    <t>SB-425</t>
-  </si>
-  <si>
-    <t>Bonds: public entities as beneficiaries.</t>
-  </si>
-  <si>
-    <t>Senate - Judiciary</t>
-  </si>
-  <si>
-    <t>SB-443</t>
-  </si>
-  <si>
-    <t>Retirement: joint powers authorities.</t>
-  </si>
-  <si>
-    <t>Assembly - Public Employment and Retirement</t>
-  </si>
-  <si>
-    <t>SB-491</t>
-  </si>
-  <si>
-    <t>Laird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
-  </si>
-  <si>
-    <t>Assembly - Utilities and Energy</t>
-  </si>
-  <si>
-    <t>SB-531</t>
-  </si>
-  <si>
-    <t>Course of study: mental health education.</t>
-  </si>
-  <si>
-    <t>Senate - Education</t>
-  </si>
-  <si>
-    <t>SB-547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
-  </si>
-  <si>
-    <t>Assembly - Insurance</t>
-  </si>
-  <si>
-    <t>SB-581</t>
-  </si>
-  <si>
-    <t>McGuire</t>
-  </si>
-  <si>
-    <t>Department of Forestry and Fire Protection: employment: firefighters.</t>
-  </si>
-  <si>
-    <t>SB-583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurer financial statements. </t>
-  </si>
-  <si>
-    <t>SB-616</t>
-  </si>
-  <si>
-    <t>Community Hardening Commission: wildfire mitigation program.</t>
-  </si>
-  <si>
-    <t>Assembly - Emergency Management</t>
-  </si>
-  <si>
-    <t>SB-630</t>
-  </si>
-  <si>
-    <t>Assembly - Arts, Entertainment, Sports, and Tourism</t>
-  </si>
-  <si>
-    <t>SB-641</t>
-  </si>
-  <si>
-    <t>Ashby</t>
-  </si>
-  <si>
-    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
-  </si>
-  <si>
-    <t>SB-672</t>
-  </si>
-  <si>
-    <t>The Youth Rehabilitation and Opportunity Act.</t>
-  </si>
-  <si>
-    <t>SB-680</t>
-  </si>
-  <si>
-    <t>Sex offender registration: unlawful sexual intercourse with a minor.</t>
-  </si>
-  <si>
-    <t>SB-702</t>
-  </si>
-  <si>
-    <t>Limón</t>
-  </si>
-  <si>
-    <t>Legislative and gubernatorial appointments: report.</t>
-  </si>
-  <si>
-    <t>SB-738</t>
-  </si>
-  <si>
-    <t>The Reclaim Act.</t>
-  </si>
-  <si>
-    <t>SB-740</t>
-  </si>
-  <si>
-    <t>Municipal wastewater agency: new agreement or amendment.</t>
-  </si>
-  <si>
-    <t>Senate - Environmental Quality</t>
-  </si>
-  <si>
-    <t>SB-783</t>
-  </si>
-  <si>
-    <t>Outdoor advertising displays: redevelopment agency project areas.</t>
-  </si>
-  <si>
     <t>SB-798</t>
   </si>
   <si>
@@ -481,9 +604,6 @@
   </si>
   <si>
     <t>Horse racing: out-of-state thoroughbred races.</t>
-  </si>
-  <si>
-    <t>Senate - Rules</t>
   </si>
 </sst>
 </file>
@@ -820,20 +940,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="94.5703125" customWidth="1"/>
+    <col min="4" max="4" width="112.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -910,10 +1028,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -930,10 +1048,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -950,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
@@ -970,10 +1088,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -981,67 +1099,67 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1053,175 +1171,175 @@
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1230,78 +1348,78 @@
         <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -1313,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,47 +1439,47 @@
         <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1370,10 +1488,10 @@
         <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1381,19 +1499,19 @@
         <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1401,27 +1519,27 @@
         <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1433,15 +1551,15 @@
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -1450,210 +1568,210 @@
         <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1670,170 +1788,450 @@
         <v>135</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-07-11_1229" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-08-05_0959" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="202">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -39,15 +39,30 @@
     <t xml:space="preserve">Status                                                         </t>
   </si>
   <si>
+    <t>AB-13</t>
+  </si>
+  <si>
+    <t>Ransom</t>
+  </si>
+  <si>
+    <t>20252026</t>
+  </si>
+  <si>
+    <t>Public Utilities Commission: membership: reports.</t>
+  </si>
+  <si>
+    <t>Amended Senate</t>
+  </si>
+  <si>
+    <t>Senate - Appropriations</t>
+  </si>
+  <si>
     <t>AB-53</t>
   </si>
   <si>
     <t>Ramos</t>
   </si>
   <si>
-    <t>20252026</t>
-  </si>
-  <si>
     <t>Personal income taxes: exclusion: Military Services Retirement and Surviving Spouse Benefit Payment Act.</t>
   </si>
   <si>
@@ -66,12 +81,6 @@
     <t>Electricity and natural gas: legislation imposing mandated programs and requirements: third-party review.</t>
   </si>
   <si>
-    <t>Amended Senate</t>
-  </si>
-  <si>
-    <t>Senate - Appropriations</t>
-  </si>
-  <si>
     <t>AB-260</t>
   </si>
   <si>
@@ -108,6 +117,15 @@
     <t>Cigarette and tobacco products: licensing and enforcement.</t>
   </si>
   <si>
+    <t>AB-592</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Business: retail food.</t>
+  </si>
+  <si>
     <t>AB-594</t>
   </si>
   <si>
@@ -117,6 +135,9 @@
     <t>Student health insurance.</t>
   </si>
   <si>
+    <t xml:space="preserve">Assembly - </t>
+  </si>
+  <si>
     <t>AB-957</t>
   </si>
   <si>
@@ -129,6 +150,15 @@
     <t/>
   </si>
   <si>
+    <t>AB-1032</t>
+  </si>
+  <si>
+    <t>Harabedian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage for behavioral health visits. </t>
+  </si>
+  <si>
     <t>AB-1138</t>
   </si>
   <si>
@@ -207,9 +237,6 @@
     <t xml:space="preserve">Health care coverage: insulin. </t>
   </si>
   <si>
-    <t>Assembly - Health</t>
-  </si>
-  <si>
     <t>SB-48</t>
   </si>
   <si>
@@ -228,9 +255,6 @@
     <t>Artificial intelligence models: large developers.</t>
   </si>
   <si>
-    <t>Assembly - Privacy and Consumer Protection</t>
-  </si>
-  <si>
     <t>SB-56</t>
   </si>
   <si>
@@ -315,216 +339,204 @@
     <t>Crimes: rape.</t>
   </si>
   <si>
+    <t>SB-267</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
+  </si>
+  <si>
+    <t>SB-296</t>
+  </si>
+  <si>
+    <t>Archuleta</t>
+  </si>
+  <si>
+    <t>Property taxation: exemption: disabled veteran homeowners.</t>
+  </si>
+  <si>
+    <t>SB-338</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Virtual Health Hub for Rural Communities Pilot Program.</t>
+  </si>
+  <si>
+    <t>SB-341</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
+  </si>
+  <si>
+    <t>SB-355</t>
+  </si>
+  <si>
+    <t>Judgment debtor employers: Employment Development Department.</t>
+  </si>
+  <si>
+    <t>SB-360</t>
+  </si>
+  <si>
+    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
+  </si>
+  <si>
+    <t>Assembly - Water, Parks and Wildlife</t>
+  </si>
+  <si>
+    <t>SB-367</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Mental health.</t>
+  </si>
+  <si>
+    <t>SB-373</t>
+  </si>
+  <si>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>Special education: nonpublic, nonsectarian schools or agencies.</t>
+  </si>
+  <si>
+    <t>SB-387</t>
+  </si>
+  <si>
+    <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
+  </si>
+  <si>
+    <t>Senate - Unfinished Business</t>
+  </si>
+  <si>
+    <t>SB-388</t>
+  </si>
+  <si>
+    <t>California Latino Commission.</t>
+  </si>
+  <si>
+    <t>SB-394</t>
+  </si>
+  <si>
+    <t>Water theft: fire hydrants.</t>
+  </si>
+  <si>
+    <t>SB-425</t>
+  </si>
+  <si>
+    <t>Bonds: public entities as beneficiaries.</t>
+  </si>
+  <si>
+    <t>Senate - Judiciary</t>
+  </si>
+  <si>
+    <t>SB-429</t>
+  </si>
+  <si>
+    <t>Cortese</t>
+  </si>
+  <si>
+    <t>Wildfire Safety and Risk Mitigation Program.</t>
+  </si>
+  <si>
+    <t>SB-443</t>
+  </si>
+  <si>
+    <t>Retirement: joint powers authorities.</t>
+  </si>
+  <si>
+    <t>Assembly - Third Reading</t>
+  </si>
+  <si>
+    <t>SB-447</t>
+  </si>
+  <si>
+    <t>Umberg</t>
+  </si>
+  <si>
+    <t>Workers’ compensation: death benefits.</t>
+  </si>
+  <si>
+    <t>SB-491</t>
+  </si>
+  <si>
+    <t>Laird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
+  </si>
+  <si>
+    <t>SB-531</t>
+  </si>
+  <si>
+    <t>Course of study: mental health education.</t>
+  </si>
+  <si>
+    <t>Senate - Education</t>
+  </si>
+  <si>
+    <t>SB-547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
+  </si>
+  <si>
+    <t>SB-581</t>
+  </si>
+  <si>
+    <t>McGuire</t>
+  </si>
+  <si>
+    <t>Department of Forestry and Fire Protection: employment: firefighters.</t>
+  </si>
+  <si>
+    <t>SB-583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurer financial statements. </t>
+  </si>
+  <si>
+    <t>Assembly - Insurance</t>
+  </si>
+  <si>
+    <t>SB-616</t>
+  </si>
+  <si>
+    <t>Community Hardening Commission: wildfire mitigation program.</t>
+  </si>
+  <si>
+    <t>SB-638</t>
+  </si>
+  <si>
+    <t>California Education and Workforce Development Coordinating Entity: California Career Technical Education Incentive Grant Program.</t>
+  </si>
+  <si>
+    <t>SB-641</t>
+  </si>
+  <si>
+    <t>Ashby</t>
+  </si>
+  <si>
+    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
+  </si>
+  <si>
+    <t>SB-672</t>
+  </si>
+  <si>
+    <t>The Youth Rehabilitation and Opportunity Act.</t>
+  </si>
+  <si>
     <t>Assembly - Public Safety</t>
   </si>
   <si>
-    <t>SB-267</t>
-  </si>
-  <si>
-    <t>Choi</t>
-  </si>
-  <si>
-    <t>Personal income tax: credit: qualified teacher: school supplies.</t>
-  </si>
-  <si>
-    <t>SB-296</t>
-  </si>
-  <si>
-    <t>Archuleta</t>
-  </si>
-  <si>
-    <t>Property taxation: exemption: disabled veteran homeowners.</t>
-  </si>
-  <si>
-    <t>SB-338</t>
-  </si>
-  <si>
-    <t>Becker</t>
-  </si>
-  <si>
-    <t>Virtual Health Hub for Rural Communities Pilot Program.</t>
-  </si>
-  <si>
-    <t>SB-341</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Instructional School Gardens Program: reestablishment: Department of Food and Agriculture.</t>
-  </si>
-  <si>
-    <t>SB-355</t>
-  </si>
-  <si>
-    <t>Judgment debtor employers: Employment Development Department.</t>
-  </si>
-  <si>
-    <t>SB-360</t>
-  </si>
-  <si>
-    <t>Land conservation: California Wildlife, Coastal, and Park Land Conservation Act: County of San Bernardino.</t>
-  </si>
-  <si>
-    <t>Assembly - Water, Parks and Wildlife</t>
-  </si>
-  <si>
-    <t>SB-367</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Mental health.</t>
-  </si>
-  <si>
-    <t>SB-373</t>
-  </si>
-  <si>
-    <t>Grove</t>
-  </si>
-  <si>
-    <t>Special education: nonpublic, nonsectarian schools or agencies.</t>
-  </si>
-  <si>
-    <t>SB-387</t>
-  </si>
-  <si>
-    <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
-  </si>
-  <si>
-    <t>Assembly - Consent</t>
-  </si>
-  <si>
-    <t>SB-388</t>
-  </si>
-  <si>
-    <t>California Latino Commission.</t>
-  </si>
-  <si>
-    <t>SB-394</t>
-  </si>
-  <si>
-    <t>Water theft: fire hydrants.</t>
-  </si>
-  <si>
-    <t>Senate - Unfinished Business</t>
-  </si>
-  <si>
-    <t>SB-425</t>
-  </si>
-  <si>
-    <t>Bonds: public entities as beneficiaries.</t>
-  </si>
-  <si>
-    <t>Senate - Judiciary</t>
-  </si>
-  <si>
-    <t>SB-429</t>
-  </si>
-  <si>
-    <t>Cortese</t>
-  </si>
-  <si>
-    <t>Wildfire Safety and Risk Mitigation Program.</t>
-  </si>
-  <si>
-    <t>Assembly - Emergency Management</t>
-  </si>
-  <si>
-    <t>SB-443</t>
-  </si>
-  <si>
-    <t>Retirement: joint powers authorities.</t>
-  </si>
-  <si>
-    <t>Assembly - Third Reading</t>
-  </si>
-  <si>
-    <t>SB-447</t>
-  </si>
-  <si>
-    <t>Umberg</t>
-  </si>
-  <si>
-    <t>Workers’ compensation: death benefits.</t>
-  </si>
-  <si>
-    <t>Assembly - Insurance</t>
-  </si>
-  <si>
-    <t>SB-491</t>
-  </si>
-  <si>
-    <t>Laird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Energy Resources Conservation and Development Commission: chair: report to the Legislature. </t>
-  </si>
-  <si>
-    <t>SB-531</t>
-  </si>
-  <si>
-    <t>Course of study: mental health education.</t>
-  </si>
-  <si>
-    <t>Senate - Education</t>
-  </si>
-  <si>
-    <t>SB-547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial property insurance cancellation and nonrenewal. </t>
-  </si>
-  <si>
-    <t>SB-581</t>
-  </si>
-  <si>
-    <t>McGuire</t>
-  </si>
-  <si>
-    <t>Department of Forestry and Fire Protection: employment: firefighters.</t>
-  </si>
-  <si>
-    <t>Assembly - Natural Resources</t>
-  </si>
-  <si>
-    <t>SB-583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurer financial statements. </t>
-  </si>
-  <si>
-    <t>SB-616</t>
-  </si>
-  <si>
-    <t>Community Hardening Commission: wildfire mitigation program.</t>
-  </si>
-  <si>
-    <t>SB-638</t>
-  </si>
-  <si>
-    <t>California Education and Workforce Development Coordinating Entity: California Career Technical Education Incentive Grant Program.</t>
-  </si>
-  <si>
-    <t>Assembly - Higher Education</t>
-  </si>
-  <si>
-    <t>SB-641</t>
-  </si>
-  <si>
-    <t>Ashby</t>
-  </si>
-  <si>
-    <t>Department of Consumer Affairs and Department of Real Estate: states of emergency: waivers and exemptions.</t>
-  </si>
-  <si>
-    <t>SB-672</t>
-  </si>
-  <si>
-    <t>The Youth Rehabilitation and Opportunity Act.</t>
-  </si>
-  <si>
     <t>SB-680</t>
   </si>
   <si>
@@ -570,40 +582,49 @@
     <t>Outdoor advertising displays: redevelopment agency project areas.</t>
   </si>
   <si>
+    <t>SB-798</t>
+  </si>
+  <si>
+    <t>Veterans.</t>
+  </si>
+  <si>
+    <t>Assembly - Military and Veterans Affairs</t>
+  </si>
+  <si>
+    <t>SB-812</t>
+  </si>
+  <si>
+    <t>Qualified youth drop-in center health care coverage.</t>
+  </si>
+  <si>
+    <t>SB-814</t>
+  </si>
+  <si>
+    <t>Homelessness.</t>
+  </si>
+  <si>
+    <t>SB-836</t>
+  </si>
+  <si>
+    <t>Electricity: transmission planning and permitting.</t>
+  </si>
+  <si>
+    <t>SB-841</t>
+  </si>
+  <si>
+    <t>Immigration enforcement.</t>
+  </si>
+  <si>
+    <t>SB-844</t>
+  </si>
+  <si>
+    <t>Horse racing: out-of-state thoroughbred races.</t>
+  </si>
+  <si>
     <t>Assembly - Governmental Organization</t>
   </si>
   <si>
-    <t>SB-798</t>
-  </si>
-  <si>
-    <t>Veterans.</t>
-  </si>
-  <si>
-    <t>Assembly - Military and Veterans Affairs</t>
-  </si>
-  <si>
-    <t>SB-814</t>
-  </si>
-  <si>
-    <t>Homelessness.</t>
-  </si>
-  <si>
-    <t>SB-836</t>
-  </si>
-  <si>
-    <t>Electricity: transmission planning and permitting.</t>
-  </si>
-  <si>
-    <t>SB-841</t>
-  </si>
-  <si>
-    <t>Immigration enforcement.</t>
-  </si>
-  <si>
-    <t>SB-844</t>
-  </si>
-  <si>
-    <t>Horse racing: out-of-state thoroughbred races.</t>
+    <t>Senate - B. P. &amp; E.D.</t>
   </si>
 </sst>
 </file>
@@ -940,9 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1028,10 +1051,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,10 +1071,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1068,10 +1091,10 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1088,10 +1111,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,10 +1131,10 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,47 +1154,47 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,39 +1202,39 @@
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1228,78 +1251,78 @@
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1311,15 +1334,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1328,98 +1351,98 @@
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -1428,10 +1451,10 @@
         <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1451,7 +1474,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1468,10 +1491,10 @@
         <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,7 +1502,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1491,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,19 +1542,19 @@
         <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1539,107 +1562,107 @@
         <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -1651,95 +1674,95 @@
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1748,490 +1771,570 @@
         <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>183</v>
+      <c r="B66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -414,9 +414,6 @@
     <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
   </si>
   <si>
-    <t>Senate - Unfinished Business</t>
-  </si>
-  <si>
     <t>SB-388</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Senate - B. P. &amp; E.D.</t>
+  </si>
+  <si>
+    <t>Senate - Waiting Concurence</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,12 +1794,12 @@
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>97</v>
@@ -1808,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>124</v>
@@ -1828,18 +1828,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>61</v>
@@ -1848,27 +1848,27 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>15</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>61</v>
@@ -1888,27 +1888,27 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>15</v>
@@ -1919,16 +1919,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>61</v>
@@ -1948,18 +1948,18 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>116</v>
@@ -1968,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>15</v>
@@ -1979,16 +1979,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>61</v>
@@ -2008,18 +2008,18 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>61</v>
@@ -2028,7 +2028,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>15</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>97</v>
@@ -2048,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>15</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>61</v>
@@ -2088,18 +2088,18 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>61</v>
@@ -2108,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>61</v>
@@ -2148,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>10</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>61</v>
@@ -2168,27 +2168,27 @@
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>15</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
@@ -2208,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>15</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>61</v>
@@ -2228,18 +2228,18 @@
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>124</v>
@@ -2248,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>15</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>61</v>
@@ -2268,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>55</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>61</v>
@@ -2288,7 +2288,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>55</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>61</v>
@@ -2308,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>15</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>61</v>
@@ -2328,13 +2328,13 @@
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-08-05_0959" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-08-25_1133" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="204">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -126,6 +126,9 @@
     <t>Business: retail food.</t>
   </si>
   <si>
+    <t>Senate - Third Reading</t>
+  </si>
+  <si>
     <t>AB-594</t>
   </si>
   <si>
@@ -147,7 +150,7 @@
     <t>Cigarette and tobacco products: retail sale: pharmacies.</t>
   </si>
   <si>
-    <t/>
+    <t>Senate - Business, Professions and Economic Development</t>
   </si>
   <si>
     <t>AB-1032</t>
@@ -180,6 +183,9 @@
     <t>Communications: lifeline telephone service program.</t>
   </si>
   <si>
+    <t>Senate - Second Reading</t>
+  </si>
+  <si>
     <t>AB-1468</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t xml:space="preserve">Health care coverage: insulin. </t>
   </si>
   <si>
+    <t>Assembly - Third Reading</t>
+  </si>
+  <si>
     <t>SB-48</t>
   </si>
   <si>
@@ -414,6 +423,9 @@
     <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
   </si>
   <si>
+    <t>Senate - Special Consent</t>
+  </si>
+  <si>
     <t>SB-388</t>
   </si>
   <si>
@@ -450,9 +462,6 @@
     <t>Retirement: joint powers authorities.</t>
   </si>
   <si>
-    <t>Assembly - Third Reading</t>
-  </si>
-  <si>
     <t>SB-447</t>
   </si>
   <si>
@@ -462,6 +471,9 @@
     <t>Workers’ compensation: death benefits.</t>
   </si>
   <si>
+    <t>Assembly - Consent</t>
+  </si>
+  <si>
     <t>SB-491</t>
   </si>
   <si>
@@ -619,12 +631,6 @@
   </si>
   <si>
     <t>Assembly - Governmental Organization</t>
-  </si>
-  <si>
-    <t>Senate - B. P. &amp; E.D.</t>
-  </si>
-  <si>
-    <t>Senate - Waiting Concurence</t>
   </si>
 </sst>
 </file>
@@ -963,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -974,7 +980,7 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="112.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1154,61 +1160,61 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1219,76 +1225,76 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1299,216 +1305,216 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1519,16 +1525,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1539,96 +1545,96 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1639,56 +1645,56 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -1699,56 +1705,56 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
@@ -1759,396 +1765,396 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>10</v>
@@ -2159,119 +2165,119 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>11</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>11</v>
@@ -2299,42 +2305,42 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-08-25_1133" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-09-02_1103" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="230">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -57,6 +57,18 @@
     <t>Senate - Appropriations</t>
   </si>
   <si>
+    <t>AB-49</t>
+  </si>
+  <si>
+    <t>Muratsuchi</t>
+  </si>
+  <si>
+    <t>Schoolsites: immigration enforcement.</t>
+  </si>
+  <si>
+    <t>Senate - Third Reading</t>
+  </si>
+  <si>
     <t>AB-53</t>
   </si>
   <si>
@@ -81,6 +93,12 @@
     <t>Electricity and natural gas: legislation imposing mandated programs and requirements: third-party review.</t>
   </si>
   <si>
+    <t>AB-221</t>
+  </si>
+  <si>
+    <t>Tribal Nation Grant Fund.</t>
+  </si>
+  <si>
     <t>AB-260</t>
   </si>
   <si>
@@ -99,6 +117,15 @@
     <t>Fire safety: fire hazard severity zones: State Fire Marshal.</t>
   </si>
   <si>
+    <t>AB-288</t>
+  </si>
+  <si>
+    <t>McKinnor</t>
+  </si>
+  <si>
+    <t>Employment: labor organization.</t>
+  </si>
+  <si>
     <t>AB-380</t>
   </si>
   <si>
@@ -108,6 +135,12 @@
     <t>Price gouging.</t>
   </si>
   <si>
+    <t>AB-543</t>
+  </si>
+  <si>
+    <t>Medi-Cal: street medicine.</t>
+  </si>
+  <si>
     <t>AB-573</t>
   </si>
   <si>
@@ -126,9 +159,6 @@
     <t>Business: retail food.</t>
   </si>
   <si>
-    <t>Senate - Third Reading</t>
-  </si>
-  <si>
     <t>AB-594</t>
   </si>
   <si>
@@ -138,7 +168,37 @@
     <t>Student health insurance.</t>
   </si>
   <si>
-    <t xml:space="preserve">Assembly - </t>
+    <t>Enrolled</t>
+  </si>
+  <si>
+    <t>Assembly - Passed</t>
+  </si>
+  <si>
+    <t>AB-841</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>State Fire Marshal: personal protective equipment: battery fires.</t>
+  </si>
+  <si>
+    <t>AB-849</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>Health providers: medical chaperones.</t>
+  </si>
+  <si>
+    <t>AB-894</t>
+  </si>
+  <si>
+    <t>Carrillo</t>
+  </si>
+  <si>
+    <t>General acute care hospitals: patient directories.</t>
   </si>
   <si>
     <t>AB-957</t>
@@ -153,6 +213,15 @@
     <t>Senate - Business, Professions and Economic Development</t>
   </si>
   <si>
+    <t>AB-960</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Patient visitation.</t>
+  </si>
+  <si>
     <t>AB-1032</t>
   </si>
   <si>
@@ -174,6 +243,9 @@
     <t>Chaptered</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>AB-1303</t>
   </si>
   <si>
@@ -183,21 +255,18 @@
     <t>Communications: lifeline telephone service program.</t>
   </si>
   <si>
-    <t>Senate - Second Reading</t>
-  </si>
-  <si>
-    <t>AB-1468</t>
-  </si>
-  <si>
-    <t>Ethnic studies: content standards, curriculum frameworks, instructional materials, and compliance monitoring.</t>
+    <t>AB-1363</t>
+  </si>
+  <si>
+    <t>Stefani</t>
+  </si>
+  <si>
+    <t>Protective orders: Wyland’s Law.</t>
   </si>
   <si>
     <t>Introduced</t>
   </si>
   <si>
-    <t>Assembly - Education</t>
-  </si>
-  <si>
     <t>SB-15</t>
   </si>
   <si>
@@ -225,6 +294,9 @@
     <t>Threats: schools and places of worship.</t>
   </si>
   <si>
+    <t>Assembly - Third Reading</t>
+  </si>
+  <si>
     <t>SB-31</t>
   </si>
   <si>
@@ -243,9 +315,6 @@
     <t xml:space="preserve">Health care coverage: insulin. </t>
   </si>
   <si>
-    <t>Assembly - Third Reading</t>
-  </si>
-  <si>
     <t>SB-48</t>
   </si>
   <si>
@@ -264,6 +333,9 @@
     <t>Artificial intelligence models: large developers.</t>
   </si>
   <si>
+    <t>Assembly - Second Reading</t>
+  </si>
+  <si>
     <t>SB-56</t>
   </si>
   <si>
@@ -423,7 +495,7 @@
     <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
   </si>
   <si>
-    <t>Senate - Special Consent</t>
+    <t>Senate - Passed</t>
   </si>
   <si>
     <t>SB-388</t>
@@ -471,7 +543,13 @@
     <t>Workers’ compensation: death benefits.</t>
   </si>
   <si>
-    <t>Assembly - Consent</t>
+    <t>Senate - Unfinished Business</t>
+  </si>
+  <si>
+    <t>SB-473</t>
+  </si>
+  <si>
+    <t>Water corporations: demand elasticity: rates and surcharges.</t>
   </si>
   <si>
     <t>SB-491</t>
@@ -967,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1037,44 +1115,44 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1085,10 +1163,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -1100,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1120,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1160,407 +1238,407 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1568,7 +1646,7 @@
         <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1577,124 +1655,124 @@
         <v>103</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -1705,167 +1783,167 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>143</v>
@@ -1874,473 +1952,653 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>203</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-09-02_1103" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-09-02_1914" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="231">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -66,39 +66,42 @@
     <t>Schoolsites: immigration enforcement.</t>
   </si>
   <si>
+    <t>Assembly - Passed</t>
+  </si>
+  <si>
+    <t>AB-53</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Personal income taxes: exclusion: Military Services Retirement and Surviving Spouse Benefit Payment Act.</t>
+  </si>
+  <si>
+    <t>Amended Assembly</t>
+  </si>
+  <si>
+    <t>Senate - Revenue and Taxation</t>
+  </si>
+  <si>
+    <t>AB-61</t>
+  </si>
+  <si>
+    <t>Pacheco</t>
+  </si>
+  <si>
+    <t>Electricity and natural gas: legislation imposing mandated programs and requirements: third-party review.</t>
+  </si>
+  <si>
+    <t>AB-221</t>
+  </si>
+  <si>
+    <t>Tribal Nation Grant Fund.</t>
+  </si>
+  <si>
     <t>Senate - Third Reading</t>
   </si>
   <si>
-    <t>AB-53</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Personal income taxes: exclusion: Military Services Retirement and Surviving Spouse Benefit Payment Act.</t>
-  </si>
-  <si>
-    <t>Amended Assembly</t>
-  </si>
-  <si>
-    <t>Senate - Revenue and Taxation</t>
-  </si>
-  <si>
-    <t>AB-61</t>
-  </si>
-  <si>
-    <t>Pacheco</t>
-  </si>
-  <si>
-    <t>Electricity and natural gas: legislation imposing mandated programs and requirements: third-party review.</t>
-  </si>
-  <si>
-    <t>AB-221</t>
-  </si>
-  <si>
-    <t>Tribal Nation Grant Fund.</t>
-  </si>
-  <si>
     <t>AB-260</t>
   </si>
   <si>
@@ -171,7 +174,7 @@
     <t>Enrolled</t>
   </si>
   <si>
-    <t>Assembly - Passed</t>
+    <t/>
   </si>
   <si>
     <t>AB-841</t>
@@ -243,9 +246,6 @@
     <t>Chaptered</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>AB-1303</t>
   </si>
   <si>
@@ -366,6 +366,9 @@
     <t>Health and care facilities: information sharing.</t>
   </si>
   <si>
+    <t>Senate - Passed</t>
+  </si>
+  <si>
     <t>SB-84</t>
   </si>
   <si>
@@ -495,9 +498,6 @@
     <t>Physicians and surgeons: special faculty permits: academic medical centers.</t>
   </si>
   <si>
-    <t>Senate - Passed</t>
-  </si>
-  <si>
     <t>SB-388</t>
   </si>
   <si>
@@ -709,6 +709,9 @@
   </si>
   <si>
     <t>Assembly - Governmental Organization</t>
+  </si>
+  <si>
+    <t>Presented to Governor</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1178,41 +1181,41 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1223,36 +1226,36 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1263,222 +1266,222 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1498,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1718,21 +1721,21 @@
         <v>19</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>19</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>83</v>
@@ -1752,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -1763,16 +1766,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -1783,16 +1786,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
@@ -1803,7 +1806,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>86</v>
@@ -1812,7 +1815,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>19</v>
@@ -1823,16 +1826,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
@@ -1843,19 +1846,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>104</v>
@@ -1863,16 +1866,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
@@ -1883,16 +1886,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>19</v>
@@ -1903,16 +1906,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>19</v>
@@ -1923,16 +1926,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
@@ -1943,16 +1946,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>19</v>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>86</v>
@@ -1972,27 +1975,27 @@
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
@@ -2003,16 +2006,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>19</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>86</v>
@@ -2032,13 +2035,13 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2046,7 +2049,7 @@
         <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -2055,7 +2058,7 @@
         <v>160</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>104</v>
@@ -2066,7 +2069,7 @@
         <v>161</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -2075,10 +2078,10 @@
         <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2138,7 +2141,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2166,7 +2169,7 @@
         <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -2226,7 +2229,7 @@
         <v>183</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2306,7 +2309,7 @@
         <v>193</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
@@ -2335,7 +2338,7 @@
         <v>197</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>104</v>
@@ -2395,7 +2398,7 @@
         <v>205</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>104</v>
@@ -2506,7 +2509,7 @@
         <v>219</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>

--- a/data/Bills-RUBIO-Present.xlsx
+++ b/data/Bills-RUBIO-Present.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills-2025-09-02_1914" sheetId="1" r:id="rId1"/>
+    <sheet name="Bills-2025-09-03_1403" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="233">
   <si>
     <t xml:space="preserve">Measure          </t>
   </si>
@@ -255,6 +255,15 @@
     <t>Communications: lifeline telephone service program.</t>
   </si>
   <si>
+    <t>AB-1326</t>
+  </si>
+  <si>
+    <t>Ahrens</t>
+  </si>
+  <si>
+    <t>Health masks: right to wear.</t>
+  </si>
+  <si>
     <t>AB-1363</t>
   </si>
   <si>
@@ -333,9 +342,6 @@
     <t>Artificial intelligence models: large developers.</t>
   </si>
   <si>
-    <t>Assembly - Second Reading</t>
-  </si>
-  <si>
     <t>SB-56</t>
   </si>
   <si>
@@ -534,6 +540,9 @@
     <t>Retirement: joint powers authorities.</t>
   </si>
   <si>
+    <t>Senate - Unfinished Business</t>
+  </si>
+  <si>
     <t>SB-447</t>
   </si>
   <si>
@@ -541,9 +550,6 @@
   </si>
   <si>
     <t>Workers’ compensation: death benefits.</t>
-  </si>
-  <si>
-    <t>Senate - Unfinished Business</t>
   </si>
   <si>
     <t>SB-473</t>
@@ -1048,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A25" sqref="A25:IV25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1347,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1526,22 +1532,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1561,15 +1567,15 @@
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1589,19 +1595,19 @@
         <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1621,7 +1627,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1641,15 +1647,15 @@
         <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1669,87 +1675,87 @@
         <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -1758,10 +1764,10 @@
         <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1769,13 +1775,13 @@
         <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -1786,30 +1792,30 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1821,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1829,13 +1835,13 @@
         <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
@@ -1846,10 +1852,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1861,7 +1867,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1869,87 +1875,87 @@
         <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -1958,10 +1964,10 @@
         <v>147</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1969,7 +1975,7 @@
         <v>148</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1978,58 +1984,58 @@
         <v>149</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2038,10 +2044,10 @@
         <v>158</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2049,7 +2055,7 @@
         <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -2058,10 +2064,10 @@
         <v>160</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2069,7 +2075,7 @@
         <v>161</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -2078,10 +2084,10 @@
         <v>162</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2089,7 +2095,7 @@
         <v>163</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -2098,38 +2104,38 @@
         <v>164</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
@@ -2141,7 +2147,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2149,27 +2155,27 @@
         <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -2178,10 +2184,10 @@
         <v>176</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2189,27 +2195,27 @@
         <v>177</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -2218,30 +2224,30 @@
         <v>181</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2249,27 +2255,27 @@
         <v>185</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -2278,30 +2284,30 @@
         <v>189</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2309,7 +2315,7 @@
         <v>193</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
@@ -2321,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2329,27 +2335,27 @@
         <v>195</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
@@ -2361,27 +2367,27 @@
         <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2389,27 +2395,27 @@
         <v>203</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
@@ -2418,10 +2424,10 @@
         <v>207</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2429,7 +2435,7 @@
         <v>208</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -2438,38 +2444,38 @@
         <v>209</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
@@ -2481,7 +2487,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2489,7 +2495,7 @@
         <v>216</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -2498,30 +2504,30 @@
         <v>217</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2529,7 +2535,7 @@
         <v>221</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
@@ -2538,10 +2544,10 @@
         <v>222</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2549,7 +2555,7 @@
         <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
@@ -2558,7 +2564,7 @@
         <v>224</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>11</v>
@@ -2569,7 +2575,7 @@
         <v>225</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
@@ -2578,10 +2584,10 @@
         <v>226</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2589,7 +2595,7 @@
         <v>227</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
@@ -2598,10 +2604,30 @@
         <v>228</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>229</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
